--- a/backend/app/BTIRD.xlsx
+++ b/backend/app/BTIRD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE75536D-560A-485E-AF9D-3704EF044C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675BA806-FCA1-4AFA-8BEE-09C47D6547FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dell_Report_Data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="127">
   <si>
     <t>op_name</t>
   </si>
@@ -412,6 +412,12 @@
   </si>
   <si>
     <t>QS</t>
+  </si>
+  <si>
+    <t>23.160.0.2</t>
+  </si>
+  <si>
+    <t>23.160.0.7</t>
   </si>
 </sst>
 </file>
@@ -419,7 +425,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="yyyy/m/d\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -533,7 +539,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -819,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO44"/>
+  <dimension ref="A1:BO88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5729,7 +5735,7 @@
     </row>
     <row r="42" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A42">
-        <f t="shared" ref="A42:A44" si="18">A41+1</f>
+        <f t="shared" ref="A42:A88" si="18">A41+1</f>
         <v>41</v>
       </c>
       <c r="B42" t="s">
@@ -6075,6 +6081,5070 @@
         <v>64</v>
       </c>
       <c r="BI44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f t="shared" si="18"/>
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="7">
+        <v>45869.734201388892</v>
+      </c>
+      <c r="D45" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F45" t="s">
+        <v>67</v>
+      </c>
+      <c r="G45" t="s">
+        <v>72</v>
+      </c>
+      <c r="H45" t="s">
+        <v>123</v>
+      </c>
+      <c r="I45" t="s">
+        <v>73</v>
+      </c>
+      <c r="J45" t="s">
+        <v>63</v>
+      </c>
+      <c r="K45" t="s">
+        <v>74</v>
+      </c>
+      <c r="L45" t="s">
+        <v>124</v>
+      </c>
+      <c r="M45" t="s">
+        <v>75</v>
+      </c>
+      <c r="N45" t="s">
+        <v>64</v>
+      </c>
+      <c r="O45" t="s">
+        <v>113</v>
+      </c>
+      <c r="P45" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>114</v>
+      </c>
+      <c r="R45" t="s">
+        <v>65</v>
+      </c>
+      <c r="T45" t="s">
+        <v>79</v>
+      </c>
+      <c r="U45" t="s">
+        <v>94</v>
+      </c>
+      <c r="V45" t="s">
+        <v>62</v>
+      </c>
+      <c r="W45" t="s">
+        <v>80</v>
+      </c>
+      <c r="X45" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV45" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY45" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ45" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB45" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC45" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD45" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE45">
+        <v>17168</v>
+      </c>
+      <c r="BF45">
+        <v>0</v>
+      </c>
+      <c r="BG45">
+        <v>16</v>
+      </c>
+      <c r="BI45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f t="shared" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="7">
+        <v>45869.697951388887</v>
+      </c>
+      <c r="D46" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F46" t="s">
+        <v>67</v>
+      </c>
+      <c r="G46" t="s">
+        <v>107</v>
+      </c>
+      <c r="H46" t="s">
+        <v>123</v>
+      </c>
+      <c r="I46" t="s">
+        <v>109</v>
+      </c>
+      <c r="J46" t="s">
+        <v>63</v>
+      </c>
+      <c r="K46" t="s">
+        <v>74</v>
+      </c>
+      <c r="L46" t="s">
+        <v>124</v>
+      </c>
+      <c r="M46" t="s">
+        <v>75</v>
+      </c>
+      <c r="N46" t="s">
+        <v>64</v>
+      </c>
+      <c r="O46" t="s">
+        <v>114</v>
+      </c>
+      <c r="P46" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>114</v>
+      </c>
+      <c r="R46" t="s">
+        <v>65</v>
+      </c>
+      <c r="T46" t="s">
+        <v>115</v>
+      </c>
+      <c r="U46" t="s">
+        <v>94</v>
+      </c>
+      <c r="V46" t="s">
+        <v>62</v>
+      </c>
+      <c r="W46" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ46">
+        <v>3</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY46" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ46" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB46" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC46" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD46" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE46">
+        <v>300</v>
+      </c>
+      <c r="BF46">
+        <v>0</v>
+      </c>
+      <c r="BG46">
+        <v>16</v>
+      </c>
+      <c r="BI46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <f t="shared" si="18"/>
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="7">
+        <v>45869.695150462961</v>
+      </c>
+      <c r="D47" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F47" t="s">
+        <v>67</v>
+      </c>
+      <c r="G47" t="s">
+        <v>108</v>
+      </c>
+      <c r="H47" t="s">
+        <v>123</v>
+      </c>
+      <c r="I47" t="s">
+        <v>110</v>
+      </c>
+      <c r="J47" t="s">
+        <v>88</v>
+      </c>
+      <c r="K47" t="s">
+        <v>74</v>
+      </c>
+      <c r="L47" t="s">
+        <v>124</v>
+      </c>
+      <c r="M47" t="s">
+        <v>75</v>
+      </c>
+      <c r="N47" t="s">
+        <v>89</v>
+      </c>
+      <c r="O47" t="s">
+        <v>114</v>
+      </c>
+      <c r="P47" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>114</v>
+      </c>
+      <c r="R47" t="s">
+        <v>65</v>
+      </c>
+      <c r="T47" t="s">
+        <v>115</v>
+      </c>
+      <c r="U47" t="s">
+        <v>94</v>
+      </c>
+      <c r="V47" t="s">
+        <v>117</v>
+      </c>
+      <c r="W47" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ47">
+        <v>3</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV47" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY47" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ47" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB47" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC47" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD47" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE47">
+        <v>140</v>
+      </c>
+      <c r="BF47">
+        <v>0</v>
+      </c>
+      <c r="BG47">
+        <v>16</v>
+      </c>
+      <c r="BI47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <f t="shared" si="18"/>
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="7">
+        <v>45868.72929398148</v>
+      </c>
+      <c r="D48" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F48" t="s">
+        <v>67</v>
+      </c>
+      <c r="G48" t="s">
+        <v>72</v>
+      </c>
+      <c r="H48" t="s">
+        <v>123</v>
+      </c>
+      <c r="I48" t="s">
+        <v>73</v>
+      </c>
+      <c r="J48" t="s">
+        <v>63</v>
+      </c>
+      <c r="K48" t="s">
+        <v>74</v>
+      </c>
+      <c r="L48" t="s">
+        <v>124</v>
+      </c>
+      <c r="M48" t="s">
+        <v>75</v>
+      </c>
+      <c r="N48" t="s">
+        <v>64</v>
+      </c>
+      <c r="O48" t="s">
+        <v>113</v>
+      </c>
+      <c r="P48" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>114</v>
+      </c>
+      <c r="R48" t="s">
+        <v>65</v>
+      </c>
+      <c r="T48" t="s">
+        <v>79</v>
+      </c>
+      <c r="U48" t="s">
+        <v>94</v>
+      </c>
+      <c r="V48" t="s">
+        <v>62</v>
+      </c>
+      <c r="W48" t="s">
+        <v>80</v>
+      </c>
+      <c r="X48" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ48" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB48" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC48" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD48" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE48">
+        <v>17022</v>
+      </c>
+      <c r="BF48">
+        <v>0</v>
+      </c>
+      <c r="BG48">
+        <v>16</v>
+      </c>
+      <c r="BI48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <f t="shared" si="18"/>
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="7">
+        <v>45868.694907407407</v>
+      </c>
+      <c r="D49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F49" t="s">
+        <v>67</v>
+      </c>
+      <c r="G49" t="s">
+        <v>107</v>
+      </c>
+      <c r="H49" t="s">
+        <v>123</v>
+      </c>
+      <c r="I49" t="s">
+        <v>109</v>
+      </c>
+      <c r="J49" t="s">
+        <v>63</v>
+      </c>
+      <c r="K49" t="s">
+        <v>74</v>
+      </c>
+      <c r="L49" t="s">
+        <v>124</v>
+      </c>
+      <c r="M49" t="s">
+        <v>75</v>
+      </c>
+      <c r="N49" t="s">
+        <v>64</v>
+      </c>
+      <c r="O49" t="s">
+        <v>114</v>
+      </c>
+      <c r="P49" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>114</v>
+      </c>
+      <c r="R49" t="s">
+        <v>65</v>
+      </c>
+      <c r="T49" t="s">
+        <v>115</v>
+      </c>
+      <c r="U49" t="s">
+        <v>94</v>
+      </c>
+      <c r="V49" t="s">
+        <v>62</v>
+      </c>
+      <c r="W49" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ49">
+        <v>3</v>
+      </c>
+      <c r="AS49" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY49" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ49" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB49" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC49" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD49" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE49">
+        <v>702</v>
+      </c>
+      <c r="BF49">
+        <v>0</v>
+      </c>
+      <c r="BG49">
+        <v>16</v>
+      </c>
+      <c r="BI49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <f t="shared" si="18"/>
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="7">
+        <v>45868.709039351852</v>
+      </c>
+      <c r="D50" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F50" t="s">
+        <v>67</v>
+      </c>
+      <c r="G50" t="s">
+        <v>108</v>
+      </c>
+      <c r="H50" t="s">
+        <v>123</v>
+      </c>
+      <c r="I50" t="s">
+        <v>110</v>
+      </c>
+      <c r="J50" t="s">
+        <v>88</v>
+      </c>
+      <c r="K50" t="s">
+        <v>74</v>
+      </c>
+      <c r="L50" t="s">
+        <v>124</v>
+      </c>
+      <c r="M50" t="s">
+        <v>75</v>
+      </c>
+      <c r="N50" t="s">
+        <v>89</v>
+      </c>
+      <c r="O50" t="s">
+        <v>114</v>
+      </c>
+      <c r="P50" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>114</v>
+      </c>
+      <c r="R50" t="s">
+        <v>65</v>
+      </c>
+      <c r="T50" t="s">
+        <v>115</v>
+      </c>
+      <c r="U50" t="s">
+        <v>94</v>
+      </c>
+      <c r="V50" t="s">
+        <v>117</v>
+      </c>
+      <c r="W50" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ50">
+        <v>3</v>
+      </c>
+      <c r="AS50" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV50" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY50" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ50" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB50" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC50" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD50" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE50">
+        <v>45</v>
+      </c>
+      <c r="BF50">
+        <v>0</v>
+      </c>
+      <c r="BG50">
+        <v>16</v>
+      </c>
+      <c r="BI50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <f t="shared" si="18"/>
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="7">
+        <v>45867.736631944441</v>
+      </c>
+      <c r="D51" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F51" t="s">
+        <v>67</v>
+      </c>
+      <c r="G51" t="s">
+        <v>72</v>
+      </c>
+      <c r="H51" t="s">
+        <v>123</v>
+      </c>
+      <c r="I51" t="s">
+        <v>73</v>
+      </c>
+      <c r="J51" t="s">
+        <v>63</v>
+      </c>
+      <c r="K51" t="s">
+        <v>74</v>
+      </c>
+      <c r="L51" t="s">
+        <v>124</v>
+      </c>
+      <c r="M51" t="s">
+        <v>75</v>
+      </c>
+      <c r="N51" t="s">
+        <v>64</v>
+      </c>
+      <c r="O51" t="s">
+        <v>113</v>
+      </c>
+      <c r="P51" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>114</v>
+      </c>
+      <c r="R51" t="s">
+        <v>65</v>
+      </c>
+      <c r="T51" t="s">
+        <v>79</v>
+      </c>
+      <c r="U51" t="s">
+        <v>94</v>
+      </c>
+      <c r="V51" t="s">
+        <v>62</v>
+      </c>
+      <c r="W51" t="s">
+        <v>80</v>
+      </c>
+      <c r="X51" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP51" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS51" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV51" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY51" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ51" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB51" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC51" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD51" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE51">
+        <v>16290</v>
+      </c>
+      <c r="BF51">
+        <v>0</v>
+      </c>
+      <c r="BG51">
+        <v>16</v>
+      </c>
+      <c r="BI51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <f t="shared" si="18"/>
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="7">
+        <v>45867.696643518517</v>
+      </c>
+      <c r="D52" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F52" t="s">
+        <v>67</v>
+      </c>
+      <c r="G52" t="s">
+        <v>107</v>
+      </c>
+      <c r="H52" t="s">
+        <v>123</v>
+      </c>
+      <c r="I52" t="s">
+        <v>109</v>
+      </c>
+      <c r="J52" t="s">
+        <v>63</v>
+      </c>
+      <c r="K52" t="s">
+        <v>74</v>
+      </c>
+      <c r="L52" t="s">
+        <v>124</v>
+      </c>
+      <c r="M52" t="s">
+        <v>75</v>
+      </c>
+      <c r="N52" t="s">
+        <v>64</v>
+      </c>
+      <c r="O52" t="s">
+        <v>114</v>
+      </c>
+      <c r="P52" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>114</v>
+      </c>
+      <c r="R52" t="s">
+        <v>65</v>
+      </c>
+      <c r="T52" t="s">
+        <v>115</v>
+      </c>
+      <c r="U52" t="s">
+        <v>94</v>
+      </c>
+      <c r="V52" t="s">
+        <v>62</v>
+      </c>
+      <c r="W52" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP52" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ52">
+        <v>3</v>
+      </c>
+      <c r="AS52" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV52" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY52" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ52" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB52" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC52" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD52" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE52">
+        <v>770</v>
+      </c>
+      <c r="BF52">
+        <v>0</v>
+      </c>
+      <c r="BG52">
+        <v>16</v>
+      </c>
+      <c r="BI52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <f t="shared" si="18"/>
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="7">
+        <v>45867.715798611112</v>
+      </c>
+      <c r="D53" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F53" t="s">
+        <v>67</v>
+      </c>
+      <c r="G53" t="s">
+        <v>108</v>
+      </c>
+      <c r="H53" t="s">
+        <v>123</v>
+      </c>
+      <c r="I53" t="s">
+        <v>110</v>
+      </c>
+      <c r="J53" t="s">
+        <v>88</v>
+      </c>
+      <c r="K53" t="s">
+        <v>74</v>
+      </c>
+      <c r="L53" t="s">
+        <v>124</v>
+      </c>
+      <c r="M53" t="s">
+        <v>75</v>
+      </c>
+      <c r="N53" t="s">
+        <v>89</v>
+      </c>
+      <c r="O53" t="s">
+        <v>114</v>
+      </c>
+      <c r="P53" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>114</v>
+      </c>
+      <c r="R53" t="s">
+        <v>65</v>
+      </c>
+      <c r="T53" t="s">
+        <v>115</v>
+      </c>
+      <c r="U53" t="s">
+        <v>94</v>
+      </c>
+      <c r="V53" t="s">
+        <v>117</v>
+      </c>
+      <c r="W53" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP53" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ53">
+        <v>3</v>
+      </c>
+      <c r="AS53" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV53" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY53" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ53" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB53" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC53" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD53" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE53">
+        <v>144</v>
+      </c>
+      <c r="BF53">
+        <v>0</v>
+      </c>
+      <c r="BG53">
+        <v>16</v>
+      </c>
+      <c r="BI53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <f t="shared" si="18"/>
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="7">
+        <v>45866.711875000001</v>
+      </c>
+      <c r="D54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E54">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F54" t="s">
+        <v>67</v>
+      </c>
+      <c r="G54" t="s">
+        <v>72</v>
+      </c>
+      <c r="H54" t="s">
+        <v>123</v>
+      </c>
+      <c r="I54" t="s">
+        <v>73</v>
+      </c>
+      <c r="J54" t="s">
+        <v>63</v>
+      </c>
+      <c r="K54" t="s">
+        <v>74</v>
+      </c>
+      <c r="L54" t="s">
+        <v>124</v>
+      </c>
+      <c r="M54" t="s">
+        <v>75</v>
+      </c>
+      <c r="N54" t="s">
+        <v>64</v>
+      </c>
+      <c r="O54" t="s">
+        <v>113</v>
+      </c>
+      <c r="P54" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>114</v>
+      </c>
+      <c r="R54" t="s">
+        <v>65</v>
+      </c>
+      <c r="T54" t="s">
+        <v>79</v>
+      </c>
+      <c r="U54" t="s">
+        <v>94</v>
+      </c>
+      <c r="V54" t="s">
+        <v>62</v>
+      </c>
+      <c r="W54" t="s">
+        <v>80</v>
+      </c>
+      <c r="X54" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP54" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS54" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV54" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY54" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ54" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB54" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC54" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD54" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE54">
+        <v>18881</v>
+      </c>
+      <c r="BF54">
+        <v>0</v>
+      </c>
+      <c r="BG54">
+        <v>16</v>
+      </c>
+      <c r="BI54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <f t="shared" si="18"/>
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="7">
+        <v>45866.702581018515</v>
+      </c>
+      <c r="D55" t="s">
+        <v>105</v>
+      </c>
+      <c r="E55">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F55" t="s">
+        <v>67</v>
+      </c>
+      <c r="G55" t="s">
+        <v>107</v>
+      </c>
+      <c r="H55" t="s">
+        <v>123</v>
+      </c>
+      <c r="I55" t="s">
+        <v>109</v>
+      </c>
+      <c r="J55" t="s">
+        <v>63</v>
+      </c>
+      <c r="K55" t="s">
+        <v>74</v>
+      </c>
+      <c r="L55" t="s">
+        <v>124</v>
+      </c>
+      <c r="M55" t="s">
+        <v>75</v>
+      </c>
+      <c r="N55" t="s">
+        <v>64</v>
+      </c>
+      <c r="O55" t="s">
+        <v>113</v>
+      </c>
+      <c r="P55" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>114</v>
+      </c>
+      <c r="R55" t="s">
+        <v>65</v>
+      </c>
+      <c r="T55" t="s">
+        <v>115</v>
+      </c>
+      <c r="U55" t="s">
+        <v>94</v>
+      </c>
+      <c r="V55" t="s">
+        <v>62</v>
+      </c>
+      <c r="W55" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP55" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ55">
+        <v>3</v>
+      </c>
+      <c r="AS55" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV55" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY55" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ55" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB55" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC55" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD55" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE55">
+        <v>688</v>
+      </c>
+      <c r="BF55">
+        <v>0</v>
+      </c>
+      <c r="BG55">
+        <v>16</v>
+      </c>
+      <c r="BI55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <f t="shared" si="18"/>
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="7">
+        <v>45866.698773148149</v>
+      </c>
+      <c r="D56" t="s">
+        <v>112</v>
+      </c>
+      <c r="E56">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F56" t="s">
+        <v>67</v>
+      </c>
+      <c r="G56" t="s">
+        <v>108</v>
+      </c>
+      <c r="H56" t="s">
+        <v>123</v>
+      </c>
+      <c r="I56" t="s">
+        <v>110</v>
+      </c>
+      <c r="J56" t="s">
+        <v>88</v>
+      </c>
+      <c r="K56" t="s">
+        <v>74</v>
+      </c>
+      <c r="L56" t="s">
+        <v>124</v>
+      </c>
+      <c r="M56" t="s">
+        <v>75</v>
+      </c>
+      <c r="N56" t="s">
+        <v>89</v>
+      </c>
+      <c r="O56" t="s">
+        <v>113</v>
+      </c>
+      <c r="P56" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>114</v>
+      </c>
+      <c r="R56" t="s">
+        <v>65</v>
+      </c>
+      <c r="T56" t="s">
+        <v>115</v>
+      </c>
+      <c r="U56" t="s">
+        <v>94</v>
+      </c>
+      <c r="V56" t="s">
+        <v>117</v>
+      </c>
+      <c r="W56" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ56">
+        <v>3</v>
+      </c>
+      <c r="AS56" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV56" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY56" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ56" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB56" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC56" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD56" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE56">
+        <v>721</v>
+      </c>
+      <c r="BF56">
+        <v>0</v>
+      </c>
+      <c r="BG56">
+        <v>16</v>
+      </c>
+      <c r="BI56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <f t="shared" si="18"/>
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="7">
+        <v>45865.710428240738</v>
+      </c>
+      <c r="D57" t="s">
+        <v>71</v>
+      </c>
+      <c r="E57">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F57" t="s">
+        <v>67</v>
+      </c>
+      <c r="G57" t="s">
+        <v>72</v>
+      </c>
+      <c r="H57" t="s">
+        <v>123</v>
+      </c>
+      <c r="I57" t="s">
+        <v>73</v>
+      </c>
+      <c r="J57" t="s">
+        <v>63</v>
+      </c>
+      <c r="K57" t="s">
+        <v>74</v>
+      </c>
+      <c r="L57" t="s">
+        <v>124</v>
+      </c>
+      <c r="M57" t="s">
+        <v>75</v>
+      </c>
+      <c r="N57" t="s">
+        <v>64</v>
+      </c>
+      <c r="O57" t="s">
+        <v>113</v>
+      </c>
+      <c r="P57" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>114</v>
+      </c>
+      <c r="R57" t="s">
+        <v>65</v>
+      </c>
+      <c r="T57" t="s">
+        <v>79</v>
+      </c>
+      <c r="U57" t="s">
+        <v>94</v>
+      </c>
+      <c r="V57" t="s">
+        <v>62</v>
+      </c>
+      <c r="W57" t="s">
+        <v>80</v>
+      </c>
+      <c r="X57" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP57" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS57" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV57" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY57" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ57" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB57" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC57" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD57" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE57">
+        <v>65144</v>
+      </c>
+      <c r="BF57">
+        <v>0</v>
+      </c>
+      <c r="BG57">
+        <v>64</v>
+      </c>
+      <c r="BI57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <f t="shared" si="18"/>
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="7">
+        <v>45865.696655092594</v>
+      </c>
+      <c r="D58" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F58" t="s">
+        <v>67</v>
+      </c>
+      <c r="G58" t="s">
+        <v>107</v>
+      </c>
+      <c r="H58" t="s">
+        <v>123</v>
+      </c>
+      <c r="I58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J58" t="s">
+        <v>63</v>
+      </c>
+      <c r="K58" t="s">
+        <v>74</v>
+      </c>
+      <c r="L58" t="s">
+        <v>124</v>
+      </c>
+      <c r="M58" t="s">
+        <v>78</v>
+      </c>
+      <c r="N58" t="s">
+        <v>64</v>
+      </c>
+      <c r="O58" t="s">
+        <v>125</v>
+      </c>
+      <c r="P58" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>114</v>
+      </c>
+      <c r="R58" t="s">
+        <v>65</v>
+      </c>
+      <c r="T58" t="s">
+        <v>115</v>
+      </c>
+      <c r="U58" t="s">
+        <v>94</v>
+      </c>
+      <c r="V58" t="s">
+        <v>62</v>
+      </c>
+      <c r="W58" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP58" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ58">
+        <v>3</v>
+      </c>
+      <c r="AS58" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV58" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY58" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ58" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB58" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC58" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD58" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE58">
+        <v>68344</v>
+      </c>
+      <c r="BF58">
+        <v>0</v>
+      </c>
+      <c r="BG58">
+        <v>64</v>
+      </c>
+      <c r="BI58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <f t="shared" si="18"/>
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="7">
+        <v>45865.696122685185</v>
+      </c>
+      <c r="D59" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F59" t="s">
+        <v>67</v>
+      </c>
+      <c r="G59" t="s">
+        <v>108</v>
+      </c>
+      <c r="H59" t="s">
+        <v>123</v>
+      </c>
+      <c r="I59" t="s">
+        <v>110</v>
+      </c>
+      <c r="J59" t="s">
+        <v>88</v>
+      </c>
+      <c r="K59" t="s">
+        <v>74</v>
+      </c>
+      <c r="L59" t="s">
+        <v>124</v>
+      </c>
+      <c r="M59" t="s">
+        <v>78</v>
+      </c>
+      <c r="N59" t="s">
+        <v>89</v>
+      </c>
+      <c r="O59" t="s">
+        <v>125</v>
+      </c>
+      <c r="P59" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>114</v>
+      </c>
+      <c r="R59" t="s">
+        <v>65</v>
+      </c>
+      <c r="T59" t="s">
+        <v>115</v>
+      </c>
+      <c r="U59" t="s">
+        <v>94</v>
+      </c>
+      <c r="V59" t="s">
+        <v>117</v>
+      </c>
+      <c r="W59" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP59" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ59">
+        <v>3</v>
+      </c>
+      <c r="AS59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY59" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ59" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB59" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC59" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD59" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE59">
+        <v>63851</v>
+      </c>
+      <c r="BF59">
+        <v>0</v>
+      </c>
+      <c r="BG59">
+        <v>64</v>
+      </c>
+      <c r="BI59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <f t="shared" si="18"/>
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="7">
+        <v>45864.701192129629</v>
+      </c>
+      <c r="D60" t="s">
+        <v>105</v>
+      </c>
+      <c r="E60">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F60" t="s">
+        <v>67</v>
+      </c>
+      <c r="G60" t="s">
+        <v>107</v>
+      </c>
+      <c r="H60" t="s">
+        <v>123</v>
+      </c>
+      <c r="I60" t="s">
+        <v>109</v>
+      </c>
+      <c r="J60" t="s">
+        <v>63</v>
+      </c>
+      <c r="K60" t="s">
+        <v>74</v>
+      </c>
+      <c r="L60" t="s">
+        <v>124</v>
+      </c>
+      <c r="M60" t="s">
+        <v>78</v>
+      </c>
+      <c r="N60" t="s">
+        <v>64</v>
+      </c>
+      <c r="O60" t="s">
+        <v>125</v>
+      </c>
+      <c r="P60" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>114</v>
+      </c>
+      <c r="R60" t="s">
+        <v>65</v>
+      </c>
+      <c r="T60" t="s">
+        <v>115</v>
+      </c>
+      <c r="U60" t="s">
+        <v>94</v>
+      </c>
+      <c r="V60" t="s">
+        <v>62</v>
+      </c>
+      <c r="W60" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ60">
+        <v>3</v>
+      </c>
+      <c r="AS60" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV60" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY60" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ60" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB60" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC60" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD60" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE60">
+        <v>16809</v>
+      </c>
+      <c r="BF60">
+        <v>0</v>
+      </c>
+      <c r="BG60">
+        <v>16</v>
+      </c>
+      <c r="BI60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <f t="shared" si="18"/>
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="7">
+        <v>45864.696643518517</v>
+      </c>
+      <c r="D61" t="s">
+        <v>112</v>
+      </c>
+      <c r="E61">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F61" t="s">
+        <v>67</v>
+      </c>
+      <c r="G61" t="s">
+        <v>108</v>
+      </c>
+      <c r="H61" t="s">
+        <v>123</v>
+      </c>
+      <c r="I61" t="s">
+        <v>110</v>
+      </c>
+      <c r="J61" t="s">
+        <v>88</v>
+      </c>
+      <c r="K61" t="s">
+        <v>74</v>
+      </c>
+      <c r="L61" t="s">
+        <v>124</v>
+      </c>
+      <c r="M61" t="s">
+        <v>78</v>
+      </c>
+      <c r="N61" t="s">
+        <v>89</v>
+      </c>
+      <c r="O61" t="s">
+        <v>125</v>
+      </c>
+      <c r="P61" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>114</v>
+      </c>
+      <c r="R61" t="s">
+        <v>65</v>
+      </c>
+      <c r="T61" t="s">
+        <v>115</v>
+      </c>
+      <c r="U61" t="s">
+        <v>94</v>
+      </c>
+      <c r="V61" t="s">
+        <v>117</v>
+      </c>
+      <c r="W61" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP61" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ61">
+        <v>3</v>
+      </c>
+      <c r="AS61" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV61" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY61" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ61" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB61" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC61" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD61" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE61">
+        <v>16800</v>
+      </c>
+      <c r="BF61">
+        <v>0</v>
+      </c>
+      <c r="BG61">
+        <v>16</v>
+      </c>
+      <c r="BI61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <f t="shared" si="18"/>
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="7">
+        <v>45863.709594907406</v>
+      </c>
+      <c r="D62" t="s">
+        <v>71</v>
+      </c>
+      <c r="E62">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F62" t="s">
+        <v>67</v>
+      </c>
+      <c r="G62" t="s">
+        <v>72</v>
+      </c>
+      <c r="H62" t="s">
+        <v>123</v>
+      </c>
+      <c r="I62" t="s">
+        <v>73</v>
+      </c>
+      <c r="J62" t="s">
+        <v>63</v>
+      </c>
+      <c r="K62" t="s">
+        <v>74</v>
+      </c>
+      <c r="L62" t="s">
+        <v>124</v>
+      </c>
+      <c r="M62" t="s">
+        <v>75</v>
+      </c>
+      <c r="N62" t="s">
+        <v>64</v>
+      </c>
+      <c r="O62" t="s">
+        <v>113</v>
+      </c>
+      <c r="P62" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>114</v>
+      </c>
+      <c r="R62" t="s">
+        <v>65</v>
+      </c>
+      <c r="T62" t="s">
+        <v>79</v>
+      </c>
+      <c r="U62" t="s">
+        <v>94</v>
+      </c>
+      <c r="V62" t="s">
+        <v>62</v>
+      </c>
+      <c r="W62" t="s">
+        <v>80</v>
+      </c>
+      <c r="X62" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP62" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS62" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV62" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY62" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ62" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB62" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC62" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD62" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE62">
+        <v>65144</v>
+      </c>
+      <c r="BF62">
+        <v>0</v>
+      </c>
+      <c r="BG62">
+        <v>64</v>
+      </c>
+      <c r="BI62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <f t="shared" si="18"/>
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" s="7">
+        <v>45863.689525462964</v>
+      </c>
+      <c r="D63" t="s">
+        <v>112</v>
+      </c>
+      <c r="E63">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F63" t="s">
+        <v>67</v>
+      </c>
+      <c r="G63" t="s">
+        <v>108</v>
+      </c>
+      <c r="H63" t="s">
+        <v>123</v>
+      </c>
+      <c r="I63" t="s">
+        <v>110</v>
+      </c>
+      <c r="J63" t="s">
+        <v>88</v>
+      </c>
+      <c r="K63" t="s">
+        <v>74</v>
+      </c>
+      <c r="L63" t="s">
+        <v>124</v>
+      </c>
+      <c r="M63" t="s">
+        <v>78</v>
+      </c>
+      <c r="N63" t="s">
+        <v>89</v>
+      </c>
+      <c r="O63" t="s">
+        <v>125</v>
+      </c>
+      <c r="P63" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>114</v>
+      </c>
+      <c r="R63" t="s">
+        <v>65</v>
+      </c>
+      <c r="T63" t="s">
+        <v>115</v>
+      </c>
+      <c r="U63" t="s">
+        <v>94</v>
+      </c>
+      <c r="V63" t="s">
+        <v>117</v>
+      </c>
+      <c r="W63" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP63" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ63">
+        <v>3</v>
+      </c>
+      <c r="AS63" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV63" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY63" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ63" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB63" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC63" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD63" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE63">
+        <v>63851</v>
+      </c>
+      <c r="BF63">
+        <v>0</v>
+      </c>
+      <c r="BG63">
+        <v>64</v>
+      </c>
+      <c r="BI63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <f t="shared" si="18"/>
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="7">
+        <v>45862.690509259257</v>
+      </c>
+      <c r="D64" t="s">
+        <v>112</v>
+      </c>
+      <c r="E64">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F64" t="s">
+        <v>67</v>
+      </c>
+      <c r="G64" t="s">
+        <v>108</v>
+      </c>
+      <c r="H64" t="s">
+        <v>123</v>
+      </c>
+      <c r="I64" t="s">
+        <v>110</v>
+      </c>
+      <c r="J64" t="s">
+        <v>88</v>
+      </c>
+      <c r="K64" t="s">
+        <v>74</v>
+      </c>
+      <c r="L64" t="s">
+        <v>124</v>
+      </c>
+      <c r="M64" t="s">
+        <v>78</v>
+      </c>
+      <c r="N64" t="s">
+        <v>89</v>
+      </c>
+      <c r="O64" t="s">
+        <v>125</v>
+      </c>
+      <c r="P64" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>114</v>
+      </c>
+      <c r="R64" t="s">
+        <v>65</v>
+      </c>
+      <c r="T64" t="s">
+        <v>115</v>
+      </c>
+      <c r="U64" t="s">
+        <v>94</v>
+      </c>
+      <c r="V64" t="s">
+        <v>117</v>
+      </c>
+      <c r="W64" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM64" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP64" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ64">
+        <v>3</v>
+      </c>
+      <c r="AS64" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV64" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY64" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ64" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB64" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC64" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD64" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE64">
+        <v>16800</v>
+      </c>
+      <c r="BF64">
+        <v>0</v>
+      </c>
+      <c r="BG64">
+        <v>16</v>
+      </c>
+      <c r="BI64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <f t="shared" si="18"/>
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="7">
+        <v>45861.696944444448</v>
+      </c>
+      <c r="D65" t="s">
+        <v>71</v>
+      </c>
+      <c r="E65">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F65" t="s">
+        <v>67</v>
+      </c>
+      <c r="G65" t="s">
+        <v>72</v>
+      </c>
+      <c r="H65" t="s">
+        <v>123</v>
+      </c>
+      <c r="I65" t="s">
+        <v>73</v>
+      </c>
+      <c r="J65" t="s">
+        <v>63</v>
+      </c>
+      <c r="K65" t="s">
+        <v>74</v>
+      </c>
+      <c r="L65" t="s">
+        <v>124</v>
+      </c>
+      <c r="M65" t="s">
+        <v>75</v>
+      </c>
+      <c r="N65" t="s">
+        <v>64</v>
+      </c>
+      <c r="O65" t="s">
+        <v>113</v>
+      </c>
+      <c r="P65" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>114</v>
+      </c>
+      <c r="R65" t="s">
+        <v>65</v>
+      </c>
+      <c r="T65" t="s">
+        <v>79</v>
+      </c>
+      <c r="U65" t="s">
+        <v>94</v>
+      </c>
+      <c r="V65" t="s">
+        <v>62</v>
+      </c>
+      <c r="W65" t="s">
+        <v>80</v>
+      </c>
+      <c r="X65" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM65" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP65" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS65" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV65" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY65" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ65" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB65" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC65" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD65" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE65">
+        <v>15809</v>
+      </c>
+      <c r="BF65">
+        <v>0</v>
+      </c>
+      <c r="BG65">
+        <v>16</v>
+      </c>
+      <c r="BI65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <f t="shared" si="18"/>
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66" s="7">
+        <v>45861.694756944446</v>
+      </c>
+      <c r="D66" t="s">
+        <v>112</v>
+      </c>
+      <c r="E66">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F66" t="s">
+        <v>67</v>
+      </c>
+      <c r="G66" t="s">
+        <v>108</v>
+      </c>
+      <c r="H66" t="s">
+        <v>123</v>
+      </c>
+      <c r="I66" t="s">
+        <v>110</v>
+      </c>
+      <c r="J66" t="s">
+        <v>88</v>
+      </c>
+      <c r="K66" t="s">
+        <v>74</v>
+      </c>
+      <c r="L66" t="s">
+        <v>124</v>
+      </c>
+      <c r="M66" t="s">
+        <v>78</v>
+      </c>
+      <c r="N66" t="s">
+        <v>89</v>
+      </c>
+      <c r="O66" t="s">
+        <v>125</v>
+      </c>
+      <c r="P66" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>114</v>
+      </c>
+      <c r="R66" t="s">
+        <v>65</v>
+      </c>
+      <c r="T66" t="s">
+        <v>115</v>
+      </c>
+      <c r="U66" t="s">
+        <v>94</v>
+      </c>
+      <c r="V66" t="s">
+        <v>117</v>
+      </c>
+      <c r="W66" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP66" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ66">
+        <v>3</v>
+      </c>
+      <c r="AS66" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV66" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY66" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ66" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB66" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC66" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD66" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE66">
+        <v>18628</v>
+      </c>
+      <c r="BF66">
+        <v>0</v>
+      </c>
+      <c r="BG66">
+        <v>16</v>
+      </c>
+      <c r="BI66" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <f t="shared" si="18"/>
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" s="7">
+        <v>45860.690034722225</v>
+      </c>
+      <c r="D67" t="s">
+        <v>71</v>
+      </c>
+      <c r="E67">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F67" t="s">
+        <v>67</v>
+      </c>
+      <c r="G67" t="s">
+        <v>72</v>
+      </c>
+      <c r="H67" t="s">
+        <v>123</v>
+      </c>
+      <c r="I67" t="s">
+        <v>73</v>
+      </c>
+      <c r="J67" t="s">
+        <v>63</v>
+      </c>
+      <c r="K67" t="s">
+        <v>74</v>
+      </c>
+      <c r="L67" t="s">
+        <v>124</v>
+      </c>
+      <c r="M67" t="s">
+        <v>75</v>
+      </c>
+      <c r="N67" t="s">
+        <v>64</v>
+      </c>
+      <c r="O67" t="s">
+        <v>113</v>
+      </c>
+      <c r="P67" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>114</v>
+      </c>
+      <c r="R67" t="s">
+        <v>65</v>
+      </c>
+      <c r="T67" t="s">
+        <v>79</v>
+      </c>
+      <c r="U67" t="s">
+        <v>94</v>
+      </c>
+      <c r="V67" t="s">
+        <v>62</v>
+      </c>
+      <c r="W67" t="s">
+        <v>80</v>
+      </c>
+      <c r="X67" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM67" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP67" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS67" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV67" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY67" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ67" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB67" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC67" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD67" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE67">
+        <v>16162</v>
+      </c>
+      <c r="BF67">
+        <v>0</v>
+      </c>
+      <c r="BG67">
+        <v>16</v>
+      </c>
+      <c r="BI67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <f t="shared" si="18"/>
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" s="7">
+        <v>45860.692928240744</v>
+      </c>
+      <c r="D68" t="s">
+        <v>112</v>
+      </c>
+      <c r="E68">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F68" t="s">
+        <v>67</v>
+      </c>
+      <c r="G68" t="s">
+        <v>108</v>
+      </c>
+      <c r="H68" t="s">
+        <v>123</v>
+      </c>
+      <c r="I68" t="s">
+        <v>110</v>
+      </c>
+      <c r="J68" t="s">
+        <v>88</v>
+      </c>
+      <c r="K68" t="s">
+        <v>74</v>
+      </c>
+      <c r="L68" t="s">
+        <v>124</v>
+      </c>
+      <c r="M68" t="s">
+        <v>78</v>
+      </c>
+      <c r="N68" t="s">
+        <v>89</v>
+      </c>
+      <c r="O68" t="s">
+        <v>125</v>
+      </c>
+      <c r="P68" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>114</v>
+      </c>
+      <c r="R68" t="s">
+        <v>65</v>
+      </c>
+      <c r="T68" t="s">
+        <v>115</v>
+      </c>
+      <c r="U68" t="s">
+        <v>94</v>
+      </c>
+      <c r="V68" t="s">
+        <v>117</v>
+      </c>
+      <c r="W68" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM68" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP68" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ68">
+        <v>3</v>
+      </c>
+      <c r="AS68" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV68" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY68" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ68" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB68" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC68" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD68" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE68">
+        <v>16663</v>
+      </c>
+      <c r="BF68">
+        <v>0</v>
+      </c>
+      <c r="BG68">
+        <v>16</v>
+      </c>
+      <c r="BI68" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <f t="shared" si="18"/>
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" s="7">
+        <v>45859.696863425925</v>
+      </c>
+      <c r="D69" t="s">
+        <v>71</v>
+      </c>
+      <c r="E69">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F69" t="s">
+        <v>67</v>
+      </c>
+      <c r="G69" t="s">
+        <v>72</v>
+      </c>
+      <c r="H69" t="s">
+        <v>123</v>
+      </c>
+      <c r="I69" t="s">
+        <v>73</v>
+      </c>
+      <c r="J69" t="s">
+        <v>63</v>
+      </c>
+      <c r="K69" t="s">
+        <v>74</v>
+      </c>
+      <c r="L69" t="s">
+        <v>124</v>
+      </c>
+      <c r="M69" t="s">
+        <v>75</v>
+      </c>
+      <c r="N69" t="s">
+        <v>64</v>
+      </c>
+      <c r="O69" t="s">
+        <v>113</v>
+      </c>
+      <c r="P69" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>114</v>
+      </c>
+      <c r="R69" t="s">
+        <v>65</v>
+      </c>
+      <c r="T69" t="s">
+        <v>79</v>
+      </c>
+      <c r="U69" t="s">
+        <v>94</v>
+      </c>
+      <c r="V69" t="s">
+        <v>62</v>
+      </c>
+      <c r="W69" t="s">
+        <v>80</v>
+      </c>
+      <c r="X69" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM69" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP69" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS69" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV69" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY69" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ69" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB69" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC69" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD69" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE69">
+        <v>17999</v>
+      </c>
+      <c r="BF69">
+        <v>0</v>
+      </c>
+      <c r="BG69">
+        <v>16</v>
+      </c>
+      <c r="BI69" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <f t="shared" si="18"/>
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="7">
+        <v>45859.672175925924</v>
+      </c>
+      <c r="D70" t="s">
+        <v>112</v>
+      </c>
+      <c r="E70">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F70" t="s">
+        <v>67</v>
+      </c>
+      <c r="G70" t="s">
+        <v>108</v>
+      </c>
+      <c r="H70" t="s">
+        <v>123</v>
+      </c>
+      <c r="I70" t="s">
+        <v>110</v>
+      </c>
+      <c r="J70" t="s">
+        <v>88</v>
+      </c>
+      <c r="K70" t="s">
+        <v>74</v>
+      </c>
+      <c r="L70" t="s">
+        <v>124</v>
+      </c>
+      <c r="M70" t="s">
+        <v>78</v>
+      </c>
+      <c r="N70" t="s">
+        <v>89</v>
+      </c>
+      <c r="O70" t="s">
+        <v>125</v>
+      </c>
+      <c r="P70" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>114</v>
+      </c>
+      <c r="R70" t="s">
+        <v>65</v>
+      </c>
+      <c r="T70" t="s">
+        <v>115</v>
+      </c>
+      <c r="U70" t="s">
+        <v>94</v>
+      </c>
+      <c r="V70" t="s">
+        <v>117</v>
+      </c>
+      <c r="W70" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM70" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP70" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ70">
+        <v>3</v>
+      </c>
+      <c r="AS70" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV70" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY70" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ70" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB70" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC70" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD70" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE70">
+        <v>16248</v>
+      </c>
+      <c r="BF70">
+        <v>0</v>
+      </c>
+      <c r="BG70">
+        <v>16</v>
+      </c>
+      <c r="BI70" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <f t="shared" si="18"/>
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" s="7">
+        <v>45856.690150462964</v>
+      </c>
+      <c r="D71" t="s">
+        <v>71</v>
+      </c>
+      <c r="E71">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F71" t="s">
+        <v>67</v>
+      </c>
+      <c r="G71" t="s">
+        <v>72</v>
+      </c>
+      <c r="H71" t="s">
+        <v>123</v>
+      </c>
+      <c r="I71" t="s">
+        <v>73</v>
+      </c>
+      <c r="J71" t="s">
+        <v>63</v>
+      </c>
+      <c r="K71" t="s">
+        <v>74</v>
+      </c>
+      <c r="L71" t="s">
+        <v>124</v>
+      </c>
+      <c r="M71" t="s">
+        <v>126</v>
+      </c>
+      <c r="N71" t="s">
+        <v>64</v>
+      </c>
+      <c r="O71" t="s">
+        <v>113</v>
+      </c>
+      <c r="P71" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>114</v>
+      </c>
+      <c r="R71" t="s">
+        <v>65</v>
+      </c>
+      <c r="T71" t="s">
+        <v>79</v>
+      </c>
+      <c r="U71" t="s">
+        <v>94</v>
+      </c>
+      <c r="V71" t="s">
+        <v>62</v>
+      </c>
+      <c r="W71" t="s">
+        <v>80</v>
+      </c>
+      <c r="X71" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP71" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS71" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV71" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY71" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ71" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB71" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC71" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD71" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE71">
+        <v>16445</v>
+      </c>
+      <c r="BF71">
+        <v>0</v>
+      </c>
+      <c r="BG71">
+        <v>64</v>
+      </c>
+      <c r="BI71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="7">
+        <v>45856.6871875</v>
+      </c>
+      <c r="D72" t="s">
+        <v>112</v>
+      </c>
+      <c r="E72">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F72" t="s">
+        <v>67</v>
+      </c>
+      <c r="G72" t="s">
+        <v>108</v>
+      </c>
+      <c r="H72" t="s">
+        <v>123</v>
+      </c>
+      <c r="I72" t="s">
+        <v>110</v>
+      </c>
+      <c r="J72" t="s">
+        <v>88</v>
+      </c>
+      <c r="K72" t="s">
+        <v>74</v>
+      </c>
+      <c r="L72" t="s">
+        <v>124</v>
+      </c>
+      <c r="M72" t="s">
+        <v>78</v>
+      </c>
+      <c r="N72" t="s">
+        <v>89</v>
+      </c>
+      <c r="O72" t="s">
+        <v>125</v>
+      </c>
+      <c r="P72" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>114</v>
+      </c>
+      <c r="R72" t="s">
+        <v>65</v>
+      </c>
+      <c r="T72" t="s">
+        <v>115</v>
+      </c>
+      <c r="U72" t="s">
+        <v>94</v>
+      </c>
+      <c r="V72" t="s">
+        <v>117</v>
+      </c>
+      <c r="W72" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP72" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ72">
+        <v>3</v>
+      </c>
+      <c r="AS72" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV72" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY72" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ72" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB72" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC72" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD72" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE72">
+        <v>64106</v>
+      </c>
+      <c r="BF72">
+        <v>0</v>
+      </c>
+      <c r="BG72">
+        <v>64</v>
+      </c>
+      <c r="BI72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <f t="shared" si="18"/>
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73" s="7">
+        <v>45855.696215277778</v>
+      </c>
+      <c r="D73" t="s">
+        <v>71</v>
+      </c>
+      <c r="E73">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F73" t="s">
+        <v>67</v>
+      </c>
+      <c r="G73" t="s">
+        <v>72</v>
+      </c>
+      <c r="H73" t="s">
+        <v>123</v>
+      </c>
+      <c r="I73" t="s">
+        <v>73</v>
+      </c>
+      <c r="J73" t="s">
+        <v>63</v>
+      </c>
+      <c r="K73" t="s">
+        <v>74</v>
+      </c>
+      <c r="L73" t="s">
+        <v>124</v>
+      </c>
+      <c r="M73" t="s">
+        <v>126</v>
+      </c>
+      <c r="N73" t="s">
+        <v>64</v>
+      </c>
+      <c r="O73" t="s">
+        <v>113</v>
+      </c>
+      <c r="P73" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>114</v>
+      </c>
+      <c r="R73" t="s">
+        <v>65</v>
+      </c>
+      <c r="T73" t="s">
+        <v>79</v>
+      </c>
+      <c r="U73" t="s">
+        <v>94</v>
+      </c>
+      <c r="V73" t="s">
+        <v>62</v>
+      </c>
+      <c r="W73" t="s">
+        <v>80</v>
+      </c>
+      <c r="X73" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM73" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP73" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS73" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV73" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY73" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ73" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB73" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC73" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD73" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE73">
+        <v>16352</v>
+      </c>
+      <c r="BF73">
+        <v>0</v>
+      </c>
+      <c r="BG73">
+        <v>16</v>
+      </c>
+      <c r="BI73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <f t="shared" si="18"/>
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>111</v>
+      </c>
+      <c r="C74" s="7">
+        <v>45855.686724537038</v>
+      </c>
+      <c r="D74" t="s">
+        <v>112</v>
+      </c>
+      <c r="E74">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F74" t="s">
+        <v>67</v>
+      </c>
+      <c r="G74" t="s">
+        <v>108</v>
+      </c>
+      <c r="H74" t="s">
+        <v>123</v>
+      </c>
+      <c r="I74" t="s">
+        <v>110</v>
+      </c>
+      <c r="J74" t="s">
+        <v>88</v>
+      </c>
+      <c r="K74" t="s">
+        <v>74</v>
+      </c>
+      <c r="L74" t="s">
+        <v>124</v>
+      </c>
+      <c r="M74" t="s">
+        <v>78</v>
+      </c>
+      <c r="N74" t="s">
+        <v>89</v>
+      </c>
+      <c r="O74" t="s">
+        <v>125</v>
+      </c>
+      <c r="P74" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>114</v>
+      </c>
+      <c r="R74" t="s">
+        <v>65</v>
+      </c>
+      <c r="T74" t="s">
+        <v>115</v>
+      </c>
+      <c r="U74" t="s">
+        <v>94</v>
+      </c>
+      <c r="V74" t="s">
+        <v>117</v>
+      </c>
+      <c r="W74" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM74" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP74" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ74">
+        <v>3</v>
+      </c>
+      <c r="AS74" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV74" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY74" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ74" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB74" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC74" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD74" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE74">
+        <v>16280</v>
+      </c>
+      <c r="BF74">
+        <v>0</v>
+      </c>
+      <c r="BG74">
+        <v>16</v>
+      </c>
+      <c r="BI74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <f t="shared" si="18"/>
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" s="7">
+        <v>45854.688692129632</v>
+      </c>
+      <c r="D75" t="s">
+        <v>71</v>
+      </c>
+      <c r="E75">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G75" t="s">
+        <v>72</v>
+      </c>
+      <c r="H75" t="s">
+        <v>123</v>
+      </c>
+      <c r="I75" t="s">
+        <v>73</v>
+      </c>
+      <c r="J75" t="s">
+        <v>63</v>
+      </c>
+      <c r="K75" t="s">
+        <v>74</v>
+      </c>
+      <c r="L75" t="s">
+        <v>124</v>
+      </c>
+      <c r="M75" t="s">
+        <v>126</v>
+      </c>
+      <c r="N75" t="s">
+        <v>64</v>
+      </c>
+      <c r="O75" t="s">
+        <v>113</v>
+      </c>
+      <c r="P75" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>114</v>
+      </c>
+      <c r="R75" t="s">
+        <v>65</v>
+      </c>
+      <c r="T75" t="s">
+        <v>79</v>
+      </c>
+      <c r="U75" t="s">
+        <v>94</v>
+      </c>
+      <c r="V75" t="s">
+        <v>62</v>
+      </c>
+      <c r="W75" t="s">
+        <v>80</v>
+      </c>
+      <c r="X75" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM75" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP75" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS75" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV75" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY75" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ75" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB75" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC75" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD75" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE75">
+        <v>14735</v>
+      </c>
+      <c r="BF75">
+        <v>0</v>
+      </c>
+      <c r="BG75">
+        <v>16</v>
+      </c>
+      <c r="BI75" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <f t="shared" si="18"/>
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" s="7">
+        <v>45854.697187500002</v>
+      </c>
+      <c r="D76" t="s">
+        <v>112</v>
+      </c>
+      <c r="E76">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F76" t="s">
+        <v>67</v>
+      </c>
+      <c r="G76" t="s">
+        <v>108</v>
+      </c>
+      <c r="H76" t="s">
+        <v>123</v>
+      </c>
+      <c r="I76" t="s">
+        <v>110</v>
+      </c>
+      <c r="J76" t="s">
+        <v>88</v>
+      </c>
+      <c r="K76" t="s">
+        <v>74</v>
+      </c>
+      <c r="L76" t="s">
+        <v>124</v>
+      </c>
+      <c r="M76" t="s">
+        <v>78</v>
+      </c>
+      <c r="N76" t="s">
+        <v>89</v>
+      </c>
+      <c r="O76" t="s">
+        <v>125</v>
+      </c>
+      <c r="P76" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>114</v>
+      </c>
+      <c r="R76" t="s">
+        <v>65</v>
+      </c>
+      <c r="T76" t="s">
+        <v>115</v>
+      </c>
+      <c r="U76" t="s">
+        <v>94</v>
+      </c>
+      <c r="V76" t="s">
+        <v>117</v>
+      </c>
+      <c r="W76" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM76" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP76" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ76">
+        <v>3</v>
+      </c>
+      <c r="AS76" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV76" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY76" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ76" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB76" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC76" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD76" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE76">
+        <v>15628</v>
+      </c>
+      <c r="BF76">
+        <v>0</v>
+      </c>
+      <c r="BG76">
+        <v>16</v>
+      </c>
+      <c r="BI76" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <f t="shared" si="18"/>
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77" s="7">
+        <v>45853.689155092594</v>
+      </c>
+      <c r="D77" t="s">
+        <v>71</v>
+      </c>
+      <c r="E77">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F77" t="s">
+        <v>67</v>
+      </c>
+      <c r="G77" t="s">
+        <v>72</v>
+      </c>
+      <c r="H77" t="s">
+        <v>123</v>
+      </c>
+      <c r="I77" t="s">
+        <v>73</v>
+      </c>
+      <c r="J77" t="s">
+        <v>63</v>
+      </c>
+      <c r="K77" t="s">
+        <v>74</v>
+      </c>
+      <c r="L77" t="s">
+        <v>124</v>
+      </c>
+      <c r="M77" t="s">
+        <v>126</v>
+      </c>
+      <c r="N77" t="s">
+        <v>64</v>
+      </c>
+      <c r="O77" t="s">
+        <v>113</v>
+      </c>
+      <c r="P77" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>114</v>
+      </c>
+      <c r="R77" t="s">
+        <v>65</v>
+      </c>
+      <c r="T77" t="s">
+        <v>79</v>
+      </c>
+      <c r="U77" t="s">
+        <v>94</v>
+      </c>
+      <c r="V77" t="s">
+        <v>62</v>
+      </c>
+      <c r="W77" t="s">
+        <v>80</v>
+      </c>
+      <c r="X77" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM77" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP77" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS77" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV77" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY77" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ77" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB77" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC77" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD77" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE77">
+        <v>15678</v>
+      </c>
+      <c r="BF77">
+        <v>0</v>
+      </c>
+      <c r="BG77">
+        <v>16</v>
+      </c>
+      <c r="BI77" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <f t="shared" si="18"/>
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" s="7">
+        <v>45852.696446759262</v>
+      </c>
+      <c r="D78" t="s">
+        <v>71</v>
+      </c>
+      <c r="E78">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F78" t="s">
+        <v>67</v>
+      </c>
+      <c r="G78" t="s">
+        <v>72</v>
+      </c>
+      <c r="H78" t="s">
+        <v>123</v>
+      </c>
+      <c r="I78" t="s">
+        <v>73</v>
+      </c>
+      <c r="J78" t="s">
+        <v>63</v>
+      </c>
+      <c r="K78" t="s">
+        <v>74</v>
+      </c>
+      <c r="L78" t="s">
+        <v>124</v>
+      </c>
+      <c r="M78" t="s">
+        <v>126</v>
+      </c>
+      <c r="N78" t="s">
+        <v>64</v>
+      </c>
+      <c r="O78" t="s">
+        <v>113</v>
+      </c>
+      <c r="P78" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>114</v>
+      </c>
+      <c r="R78" t="s">
+        <v>65</v>
+      </c>
+      <c r="T78" t="s">
+        <v>79</v>
+      </c>
+      <c r="U78" t="s">
+        <v>94</v>
+      </c>
+      <c r="V78" t="s">
+        <v>62</v>
+      </c>
+      <c r="W78" t="s">
+        <v>80</v>
+      </c>
+      <c r="X78" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM78" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP78" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS78" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV78" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY78" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ78" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB78" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC78" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD78" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE78">
+        <v>16438</v>
+      </c>
+      <c r="BF78">
+        <v>0</v>
+      </c>
+      <c r="BG78">
+        <v>16</v>
+      </c>
+      <c r="BI78" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <f t="shared" si="18"/>
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79" s="7">
+        <v>45849.691122685188</v>
+      </c>
+      <c r="D79" t="s">
+        <v>71</v>
+      </c>
+      <c r="E79">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F79" t="s">
+        <v>67</v>
+      </c>
+      <c r="G79" t="s">
+        <v>72</v>
+      </c>
+      <c r="H79" t="s">
+        <v>123</v>
+      </c>
+      <c r="I79" t="s">
+        <v>73</v>
+      </c>
+      <c r="J79" t="s">
+        <v>63</v>
+      </c>
+      <c r="K79" t="s">
+        <v>74</v>
+      </c>
+      <c r="L79" t="s">
+        <v>124</v>
+      </c>
+      <c r="M79" t="s">
+        <v>126</v>
+      </c>
+      <c r="N79" t="s">
+        <v>64</v>
+      </c>
+      <c r="O79" t="s">
+        <v>113</v>
+      </c>
+      <c r="P79" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>114</v>
+      </c>
+      <c r="R79" t="s">
+        <v>65</v>
+      </c>
+      <c r="T79" t="s">
+        <v>79</v>
+      </c>
+      <c r="U79" t="s">
+        <v>94</v>
+      </c>
+      <c r="V79" t="s">
+        <v>62</v>
+      </c>
+      <c r="W79" t="s">
+        <v>80</v>
+      </c>
+      <c r="X79" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM79" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP79" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS79" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV79" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY79" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ79" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB79" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC79" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD79" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE79">
+        <v>63221</v>
+      </c>
+      <c r="BF79">
+        <v>0</v>
+      </c>
+      <c r="BG79">
+        <v>64</v>
+      </c>
+      <c r="BI79" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <f t="shared" si="18"/>
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>70</v>
+      </c>
+      <c r="C80" s="7">
+        <v>45848.692812499998</v>
+      </c>
+      <c r="D80" t="s">
+        <v>71</v>
+      </c>
+      <c r="E80">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F80" t="s">
+        <v>67</v>
+      </c>
+      <c r="G80" t="s">
+        <v>72</v>
+      </c>
+      <c r="H80" t="s">
+        <v>123</v>
+      </c>
+      <c r="I80" t="s">
+        <v>73</v>
+      </c>
+      <c r="J80" t="s">
+        <v>63</v>
+      </c>
+      <c r="K80" t="s">
+        <v>74</v>
+      </c>
+      <c r="L80" t="s">
+        <v>124</v>
+      </c>
+      <c r="M80" t="s">
+        <v>126</v>
+      </c>
+      <c r="N80" t="s">
+        <v>64</v>
+      </c>
+      <c r="O80" t="s">
+        <v>113</v>
+      </c>
+      <c r="P80" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>114</v>
+      </c>
+      <c r="R80" t="s">
+        <v>65</v>
+      </c>
+      <c r="T80" t="s">
+        <v>79</v>
+      </c>
+      <c r="U80" t="s">
+        <v>94</v>
+      </c>
+      <c r="V80" t="s">
+        <v>62</v>
+      </c>
+      <c r="W80" t="s">
+        <v>80</v>
+      </c>
+      <c r="X80" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM80" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP80" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS80" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV80" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY80" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ80" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB80" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC80" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD80" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE80">
+        <v>17778</v>
+      </c>
+      <c r="BF80">
+        <v>0</v>
+      </c>
+      <c r="BG80">
+        <v>16</v>
+      </c>
+      <c r="BI80" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <f t="shared" si="18"/>
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>70</v>
+      </c>
+      <c r="C81" s="7">
+        <v>45847.682453703703</v>
+      </c>
+      <c r="D81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E81">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F81" t="s">
+        <v>67</v>
+      </c>
+      <c r="G81" t="s">
+        <v>72</v>
+      </c>
+      <c r="H81" t="s">
+        <v>123</v>
+      </c>
+      <c r="I81" t="s">
+        <v>73</v>
+      </c>
+      <c r="J81" t="s">
+        <v>63</v>
+      </c>
+      <c r="K81" t="s">
+        <v>74</v>
+      </c>
+      <c r="L81" t="s">
+        <v>124</v>
+      </c>
+      <c r="M81" t="s">
+        <v>126</v>
+      </c>
+      <c r="N81" t="s">
+        <v>64</v>
+      </c>
+      <c r="O81" t="s">
+        <v>113</v>
+      </c>
+      <c r="P81" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>114</v>
+      </c>
+      <c r="R81" t="s">
+        <v>65</v>
+      </c>
+      <c r="T81" t="s">
+        <v>79</v>
+      </c>
+      <c r="U81" t="s">
+        <v>94</v>
+      </c>
+      <c r="V81" t="s">
+        <v>62</v>
+      </c>
+      <c r="W81" t="s">
+        <v>80</v>
+      </c>
+      <c r="X81" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM81" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP81" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS81" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV81" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY81" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ81" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB81" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC81" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD81" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE81">
+        <v>16396</v>
+      </c>
+      <c r="BF81">
+        <v>0</v>
+      </c>
+      <c r="BG81">
+        <v>16</v>
+      </c>
+      <c r="BI81" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <f t="shared" si="18"/>
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>70</v>
+      </c>
+      <c r="C82" s="7">
+        <v>45846.693877314814</v>
+      </c>
+      <c r="D82" t="s">
+        <v>71</v>
+      </c>
+      <c r="E82">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F82" t="s">
+        <v>67</v>
+      </c>
+      <c r="G82" t="s">
+        <v>72</v>
+      </c>
+      <c r="H82" t="s">
+        <v>123</v>
+      </c>
+      <c r="I82" t="s">
+        <v>73</v>
+      </c>
+      <c r="J82" t="s">
+        <v>63</v>
+      </c>
+      <c r="K82" t="s">
+        <v>74</v>
+      </c>
+      <c r="L82" t="s">
+        <v>124</v>
+      </c>
+      <c r="M82" t="s">
+        <v>126</v>
+      </c>
+      <c r="N82" t="s">
+        <v>64</v>
+      </c>
+      <c r="O82" t="s">
+        <v>113</v>
+      </c>
+      <c r="P82" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>114</v>
+      </c>
+      <c r="R82" t="s">
+        <v>65</v>
+      </c>
+      <c r="T82" t="s">
+        <v>79</v>
+      </c>
+      <c r="U82" t="s">
+        <v>94</v>
+      </c>
+      <c r="V82" t="s">
+        <v>62</v>
+      </c>
+      <c r="W82" t="s">
+        <v>80</v>
+      </c>
+      <c r="X82" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM82" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP82" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS82" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV82" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY82" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ82" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB82" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC82" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD82" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE82">
+        <v>16273</v>
+      </c>
+      <c r="BF82">
+        <v>0</v>
+      </c>
+      <c r="BG82">
+        <v>16</v>
+      </c>
+      <c r="BI82" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <f t="shared" si="18"/>
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>70</v>
+      </c>
+      <c r="C83" s="7">
+        <v>45845.697881944441</v>
+      </c>
+      <c r="D83" t="s">
+        <v>71</v>
+      </c>
+      <c r="E83">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F83" t="s">
+        <v>67</v>
+      </c>
+      <c r="G83" t="s">
+        <v>72</v>
+      </c>
+      <c r="H83" t="s">
+        <v>123</v>
+      </c>
+      <c r="I83" t="s">
+        <v>73</v>
+      </c>
+      <c r="J83" t="s">
+        <v>63</v>
+      </c>
+      <c r="K83" t="s">
+        <v>74</v>
+      </c>
+      <c r="L83" t="s">
+        <v>124</v>
+      </c>
+      <c r="M83" t="s">
+        <v>78</v>
+      </c>
+      <c r="N83" t="s">
+        <v>64</v>
+      </c>
+      <c r="O83" t="s">
+        <v>113</v>
+      </c>
+      <c r="P83" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>114</v>
+      </c>
+      <c r="R83" t="s">
+        <v>65</v>
+      </c>
+      <c r="T83" t="s">
+        <v>79</v>
+      </c>
+      <c r="U83" t="s">
+        <v>94</v>
+      </c>
+      <c r="V83" t="s">
+        <v>62</v>
+      </c>
+      <c r="W83" t="s">
+        <v>80</v>
+      </c>
+      <c r="X83" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM83" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP83" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS83" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV83" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY83" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ83" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB83" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC83" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD83" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE83">
+        <v>15811</v>
+      </c>
+      <c r="BF83">
+        <v>0</v>
+      </c>
+      <c r="BG83">
+        <v>16</v>
+      </c>
+      <c r="BI83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <f t="shared" si="18"/>
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>70</v>
+      </c>
+      <c r="C84" s="7">
+        <v>45842.694340277776</v>
+      </c>
+      <c r="D84" t="s">
+        <v>71</v>
+      </c>
+      <c r="E84">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F84" t="s">
+        <v>67</v>
+      </c>
+      <c r="G84" t="s">
+        <v>72</v>
+      </c>
+      <c r="H84" t="s">
+        <v>123</v>
+      </c>
+      <c r="I84" t="s">
+        <v>73</v>
+      </c>
+      <c r="J84" t="s">
+        <v>63</v>
+      </c>
+      <c r="K84" t="s">
+        <v>74</v>
+      </c>
+      <c r="L84" t="s">
+        <v>124</v>
+      </c>
+      <c r="M84" t="s">
+        <v>78</v>
+      </c>
+      <c r="N84" t="s">
+        <v>64</v>
+      </c>
+      <c r="O84" t="s">
+        <v>113</v>
+      </c>
+      <c r="P84" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>114</v>
+      </c>
+      <c r="R84" t="s">
+        <v>65</v>
+      </c>
+      <c r="T84" t="s">
+        <v>79</v>
+      </c>
+      <c r="U84" t="s">
+        <v>94</v>
+      </c>
+      <c r="V84" t="s">
+        <v>62</v>
+      </c>
+      <c r="W84" t="s">
+        <v>80</v>
+      </c>
+      <c r="X84" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM84" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP84" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS84" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV84" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY84" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ84" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB84" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC84" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD84" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE84">
+        <v>63179</v>
+      </c>
+      <c r="BF84">
+        <v>0</v>
+      </c>
+      <c r="BG84">
+        <v>64</v>
+      </c>
+      <c r="BI84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <f t="shared" si="18"/>
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C85" s="7">
+        <v>45841.687280092592</v>
+      </c>
+      <c r="D85" t="s">
+        <v>71</v>
+      </c>
+      <c r="E85">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F85" t="s">
+        <v>67</v>
+      </c>
+      <c r="G85" t="s">
+        <v>72</v>
+      </c>
+      <c r="H85" t="s">
+        <v>123</v>
+      </c>
+      <c r="I85" t="s">
+        <v>73</v>
+      </c>
+      <c r="J85" t="s">
+        <v>63</v>
+      </c>
+      <c r="K85" t="s">
+        <v>74</v>
+      </c>
+      <c r="L85" t="s">
+        <v>124</v>
+      </c>
+      <c r="M85" t="s">
+        <v>78</v>
+      </c>
+      <c r="N85" t="s">
+        <v>64</v>
+      </c>
+      <c r="O85" t="s">
+        <v>113</v>
+      </c>
+      <c r="P85" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>114</v>
+      </c>
+      <c r="R85" t="s">
+        <v>65</v>
+      </c>
+      <c r="T85" t="s">
+        <v>79</v>
+      </c>
+      <c r="U85" t="s">
+        <v>94</v>
+      </c>
+      <c r="V85" t="s">
+        <v>62</v>
+      </c>
+      <c r="W85" t="s">
+        <v>80</v>
+      </c>
+      <c r="X85" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM85" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP85" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS85" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV85" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY85" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ85" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB85" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC85" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD85" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE85">
+        <v>16383</v>
+      </c>
+      <c r="BF85">
+        <v>0</v>
+      </c>
+      <c r="BG85">
+        <v>16</v>
+      </c>
+      <c r="BI85" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <f t="shared" si="18"/>
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>70</v>
+      </c>
+      <c r="C86" s="7">
+        <v>45840.691493055558</v>
+      </c>
+      <c r="D86" t="s">
+        <v>71</v>
+      </c>
+      <c r="E86">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F86" t="s">
+        <v>67</v>
+      </c>
+      <c r="G86" t="s">
+        <v>72</v>
+      </c>
+      <c r="H86" t="s">
+        <v>123</v>
+      </c>
+      <c r="I86" t="s">
+        <v>73</v>
+      </c>
+      <c r="J86" t="s">
+        <v>63</v>
+      </c>
+      <c r="K86" t="s">
+        <v>74</v>
+      </c>
+      <c r="L86" t="s">
+        <v>124</v>
+      </c>
+      <c r="M86" t="s">
+        <v>78</v>
+      </c>
+      <c r="N86" t="s">
+        <v>64</v>
+      </c>
+      <c r="O86" t="s">
+        <v>113</v>
+      </c>
+      <c r="P86" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>114</v>
+      </c>
+      <c r="R86" t="s">
+        <v>65</v>
+      </c>
+      <c r="T86" t="s">
+        <v>79</v>
+      </c>
+      <c r="U86" t="s">
+        <v>94</v>
+      </c>
+      <c r="V86" t="s">
+        <v>62</v>
+      </c>
+      <c r="W86" t="s">
+        <v>80</v>
+      </c>
+      <c r="X86" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM86" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP86" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS86" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV86" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY86" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ86" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB86" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC86" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD86" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE86">
+        <v>15948</v>
+      </c>
+      <c r="BF86">
+        <v>0</v>
+      </c>
+      <c r="BG86">
+        <v>16</v>
+      </c>
+      <c r="BI86" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <f t="shared" si="18"/>
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>70</v>
+      </c>
+      <c r="C87" s="7">
+        <v>45839.685752314814</v>
+      </c>
+      <c r="D87" t="s">
+        <v>71</v>
+      </c>
+      <c r="E87">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F87" t="s">
+        <v>67</v>
+      </c>
+      <c r="G87" t="s">
+        <v>72</v>
+      </c>
+      <c r="H87" t="s">
+        <v>123</v>
+      </c>
+      <c r="I87" t="s">
+        <v>73</v>
+      </c>
+      <c r="J87" t="s">
+        <v>63</v>
+      </c>
+      <c r="K87" t="s">
+        <v>74</v>
+      </c>
+      <c r="L87" t="s">
+        <v>124</v>
+      </c>
+      <c r="M87" t="s">
+        <v>78</v>
+      </c>
+      <c r="N87" t="s">
+        <v>64</v>
+      </c>
+      <c r="O87" t="s">
+        <v>113</v>
+      </c>
+      <c r="P87" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>114</v>
+      </c>
+      <c r="R87" t="s">
+        <v>65</v>
+      </c>
+      <c r="T87" t="s">
+        <v>79</v>
+      </c>
+      <c r="U87" t="s">
+        <v>94</v>
+      </c>
+      <c r="V87" t="s">
+        <v>62</v>
+      </c>
+      <c r="W87" t="s">
+        <v>80</v>
+      </c>
+      <c r="X87" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM87" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP87" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS87" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV87" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY87" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ87" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB87" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC87" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD87" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE87">
+        <v>15912</v>
+      </c>
+      <c r="BF87">
+        <v>0</v>
+      </c>
+      <c r="BG87">
+        <v>16</v>
+      </c>
+      <c r="BI87" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:61" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <f t="shared" si="18"/>
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>70</v>
+      </c>
+      <c r="C88" s="7">
+        <v>45838.699756944443</v>
+      </c>
+      <c r="D88" t="s">
+        <v>71</v>
+      </c>
+      <c r="E88">
+        <v>26100.494600000002</v>
+      </c>
+      <c r="F88" t="s">
+        <v>67</v>
+      </c>
+      <c r="G88" t="s">
+        <v>72</v>
+      </c>
+      <c r="H88" t="s">
+        <v>123</v>
+      </c>
+      <c r="I88" t="s">
+        <v>73</v>
+      </c>
+      <c r="J88" t="s">
+        <v>63</v>
+      </c>
+      <c r="K88" t="s">
+        <v>74</v>
+      </c>
+      <c r="L88" t="s">
+        <v>124</v>
+      </c>
+      <c r="M88" t="s">
+        <v>78</v>
+      </c>
+      <c r="N88" t="s">
+        <v>64</v>
+      </c>
+      <c r="O88" t="s">
+        <v>113</v>
+      </c>
+      <c r="P88" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>114</v>
+      </c>
+      <c r="R88" t="s">
+        <v>65</v>
+      </c>
+      <c r="T88" t="s">
+        <v>79</v>
+      </c>
+      <c r="U88" t="s">
+        <v>94</v>
+      </c>
+      <c r="V88" t="s">
+        <v>62</v>
+      </c>
+      <c r="W88" t="s">
+        <v>80</v>
+      </c>
+      <c r="X88" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM88" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP88" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS88" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV88" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY88" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ88" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB88" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC88" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD88" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE88">
+        <v>15297</v>
+      </c>
+      <c r="BF88">
+        <v>0</v>
+      </c>
+      <c r="BG88">
+        <v>16</v>
+      </c>
+      <c r="BI88" t="s">
         <v>83</v>
       </c>
     </row>
@@ -6091,7 +11161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF5E143-8483-4FCB-BED3-178AEE5EE779}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>

--- a/backend/app/BTIRD.xlsx
+++ b/backend/app/BTIRD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3112FF-36E1-4FA0-B1E3-14D7D1703ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F5081A-C638-4FCC-9E2C-7A67534670ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dell_Report_Data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3507" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3507" uniqueCount="145">
   <si>
     <t>op_name</t>
   </si>
@@ -445,9 +445,6 @@
   </si>
   <si>
     <t>23.140.0.2</t>
-  </si>
-  <si>
-    <t>MS</t>
   </si>
   <si>
     <t>BITS007</t>
@@ -873,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T44" sqref="T44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -938,7 +935,7 @@
     <col min="57" max="57" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="9.88671875" customWidth="1"/>
-    <col min="60" max="60" width="31.21875" customWidth="1"/>
+    <col min="60" max="60" width="50" customWidth="1"/>
     <col min="61" max="61" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="14.33203125" bestFit="1" customWidth="1"/>
@@ -1162,7 +1159,7 @@
         <v>45903.424861111111</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E2">
         <v>26100.494600000002</v>
@@ -1189,7 +1186,7 @@
         <v>131</v>
       </c>
       <c r="M2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N2" t="s">
         <v>64</v>
@@ -1207,7 +1204,7 @@
         <v>65</v>
       </c>
       <c r="T2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AM2" t="s">
         <v>69</v>
@@ -1265,7 +1262,7 @@
         <v>45903.417870370373</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E3">
         <v>26100.494600000002</v>
@@ -1292,7 +1289,7 @@
         <v>131</v>
       </c>
       <c r="M3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N3" t="s">
         <v>64</v>
@@ -1310,7 +1307,7 @@
         <v>65</v>
       </c>
       <c r="T3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AM3" t="s">
         <v>68</v>
@@ -1368,7 +1365,7 @@
         <v>45903.717615740738</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E4">
         <v>26100.494600000002</v>
@@ -1395,7 +1392,7 @@
         <v>131</v>
       </c>
       <c r="M4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N4" t="s">
         <v>64</v>
@@ -1413,7 +1410,7 @@
         <v>65</v>
       </c>
       <c r="T4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AM4" t="s">
         <v>69</v>
@@ -1471,7 +1468,7 @@
         <v>45903.714965277781</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E5">
         <v>26100.494600000002</v>
@@ -1498,7 +1495,7 @@
         <v>131</v>
       </c>
       <c r="M5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N5" t="s">
         <v>64</v>
@@ -1516,7 +1513,7 @@
         <v>65</v>
       </c>
       <c r="T5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AM5" t="s">
         <v>68</v>
@@ -1816,7 +1813,7 @@
         <v>45902.417488425926</v>
       </c>
       <c r="D8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E8">
         <v>26100.494600000002</v>
@@ -1843,7 +1840,7 @@
         <v>131</v>
       </c>
       <c r="M8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N8" t="s">
         <v>64</v>
@@ -1861,7 +1858,7 @@
         <v>65</v>
       </c>
       <c r="T8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AM8" t="s">
         <v>68</v>
@@ -1919,7 +1916,7 @@
         <v>45902.422210648147</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E9">
         <v>26100.494600000002</v>
@@ -1946,7 +1943,7 @@
         <v>131</v>
       </c>
       <c r="M9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N9" t="s">
         <v>64</v>
@@ -1964,7 +1961,7 @@
         <v>65</v>
       </c>
       <c r="T9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AM9" t="s">
         <v>69</v>
@@ -2022,7 +2019,7 @@
         <v>45902.711747685185</v>
       </c>
       <c r="D10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E10">
         <v>26100.494600000002</v>
@@ -2049,7 +2046,7 @@
         <v>131</v>
       </c>
       <c r="M10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s">
         <v>64</v>
@@ -2067,7 +2064,7 @@
         <v>65</v>
       </c>
       <c r="T10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AM10" t="s">
         <v>69</v>
@@ -2125,7 +2122,7 @@
         <v>45902.701979166668</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E11">
         <v>26100.494600000002</v>
@@ -2152,7 +2149,7 @@
         <v>131</v>
       </c>
       <c r="M11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N11" t="s">
         <v>64</v>
@@ -2170,7 +2167,7 @@
         <v>65</v>
       </c>
       <c r="T11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AM11" t="s">
         <v>69</v>
@@ -2470,7 +2467,7 @@
         <v>45901.417199074072</v>
       </c>
       <c r="D14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E14">
         <v>26100.494600000002</v>
@@ -2497,7 +2494,7 @@
         <v>131</v>
       </c>
       <c r="M14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N14" t="s">
         <v>64</v>
@@ -2515,7 +2512,7 @@
         <v>65</v>
       </c>
       <c r="T14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AM14" t="s">
         <v>68</v>
@@ -2573,7 +2570,7 @@
         <v>45901.420844907407</v>
       </c>
       <c r="D15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E15">
         <v>26100.494600000002</v>
@@ -2600,7 +2597,7 @@
         <v>131</v>
       </c>
       <c r="M15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N15" t="s">
         <v>64</v>
@@ -2618,7 +2615,7 @@
         <v>65</v>
       </c>
       <c r="T15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AM15" t="s">
         <v>69</v>
@@ -2676,7 +2673,7 @@
         <v>45901.709178240744</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E16">
         <v>26100.494600000002</v>
@@ -2703,7 +2700,7 @@
         <v>131</v>
       </c>
       <c r="M16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N16" t="s">
         <v>64</v>
@@ -2721,7 +2718,7 @@
         <v>65</v>
       </c>
       <c r="T16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AM16" t="s">
         <v>68</v>
@@ -2779,7 +2776,7 @@
         <v>45901.715462962966</v>
       </c>
       <c r="D17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E17">
         <v>26100.494600000002</v>
@@ -2806,7 +2803,7 @@
         <v>131</v>
       </c>
       <c r="M17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N17" t="s">
         <v>64</v>
@@ -2824,7 +2821,7 @@
         <v>65</v>
       </c>
       <c r="T17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AM17" t="s">
         <v>69</v>
@@ -3124,7 +3121,7 @@
         <v>45898.417488425926</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E20">
         <v>26100.494600000002</v>
@@ -3151,7 +3148,7 @@
         <v>131</v>
       </c>
       <c r="M20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N20" t="s">
         <v>64</v>
@@ -3169,7 +3166,7 @@
         <v>65</v>
       </c>
       <c r="T20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AM20" t="s">
         <v>69</v>
@@ -3227,7 +3224,7 @@
         <v>45898.417488425926</v>
       </c>
       <c r="D21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E21">
         <v>26100.494600000002</v>
@@ -3254,7 +3251,7 @@
         <v>131</v>
       </c>
       <c r="M21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N21" t="s">
         <v>64</v>
@@ -3272,7 +3269,7 @@
         <v>65</v>
       </c>
       <c r="T21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AM21" t="s">
         <v>69</v>
@@ -3330,7 +3327,7 @@
         <v>45898.712245370371</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E22">
         <v>26100.494600000002</v>
@@ -3357,7 +3354,7 @@
         <v>131</v>
       </c>
       <c r="M22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N22" t="s">
         <v>64</v>
@@ -3375,7 +3372,7 @@
         <v>65</v>
       </c>
       <c r="T22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AM22" t="s">
         <v>69</v>
@@ -3433,7 +3430,7 @@
         <v>45898.707939814813</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E23">
         <v>26100.494600000002</v>
@@ -3460,7 +3457,7 @@
         <v>131</v>
       </c>
       <c r="M23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N23" t="s">
         <v>64</v>
@@ -3478,7 +3475,7 @@
         <v>65</v>
       </c>
       <c r="T23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AM23" t="s">
         <v>69</v>
@@ -3778,7 +3775,7 @@
         <v>45897.421261574076</v>
       </c>
       <c r="D26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E26">
         <v>26100.494600000002</v>
@@ -3823,7 +3820,7 @@
         <v>65</v>
       </c>
       <c r="T26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AM26" t="s">
         <v>69</v>
@@ -3881,7 +3878,7 @@
         <v>45897.702337962961</v>
       </c>
       <c r="D27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E27">
         <v>26100.494600000002</v>
@@ -3926,7 +3923,7 @@
         <v>65</v>
       </c>
       <c r="T27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AM27" t="s">
         <v>69</v>
@@ -4226,7 +4223,7 @@
         <v>45896.424131944441</v>
       </c>
       <c r="D30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E30">
         <v>26100.494600000002</v>
@@ -4271,7 +4268,7 @@
         <v>65</v>
       </c>
       <c r="T30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AM30" t="s">
         <v>69</v>
@@ -4329,7 +4326,7 @@
         <v>45896.705509259256</v>
       </c>
       <c r="D31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E31">
         <v>26100.494600000002</v>
@@ -4374,7 +4371,7 @@
         <v>65</v>
       </c>
       <c r="T31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AM31" t="s">
         <v>69</v>
@@ -4674,7 +4671,7 @@
         <v>45895.416851851849</v>
       </c>
       <c r="D34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E34">
         <v>26100.494600000002</v>
@@ -4719,7 +4716,7 @@
         <v>65</v>
       </c>
       <c r="T34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AM34" t="s">
         <v>69</v>
@@ -4777,7 +4774,7 @@
         <v>45895.7109375</v>
       </c>
       <c r="D35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E35">
         <v>26100.494600000002</v>
@@ -4822,7 +4819,7 @@
         <v>65</v>
       </c>
       <c r="T35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AM35" t="s">
         <v>69</v>
@@ -4995,7 +4992,7 @@
         <v>45894.422349537039</v>
       </c>
       <c r="D37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E37">
         <v>26100.494600000002</v>
@@ -5040,7 +5037,7 @@
         <v>65</v>
       </c>
       <c r="T37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AM37" t="s">
         <v>69</v>
@@ -5098,7 +5095,7 @@
         <v>45894.715787037036</v>
       </c>
       <c r="D38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E38">
         <v>26100.494600000002</v>
@@ -5143,7 +5140,7 @@
         <v>65</v>
       </c>
       <c r="T38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AM38" t="s">
         <v>69</v>
@@ -5316,7 +5313,7 @@
         <v>45891.417604166665</v>
       </c>
       <c r="D40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E40">
         <v>26100.494600000002</v>
@@ -5361,7 +5358,7 @@
         <v>65</v>
       </c>
       <c r="T40" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AM40" t="s">
         <v>68</v>
@@ -5422,7 +5419,7 @@
         <v>45891.708703703705</v>
       </c>
       <c r="D41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E41">
         <v>26100.494600000002</v>
@@ -5467,7 +5464,7 @@
         <v>65</v>
       </c>
       <c r="T41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AM41" t="s">
         <v>69</v>
@@ -5640,7 +5637,7 @@
         <v>45890.418043981481</v>
       </c>
       <c r="D43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E43">
         <v>26100.494600000002</v>
@@ -5685,7 +5682,7 @@
         <v>65</v>
       </c>
       <c r="T43" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AM43" t="s">
         <v>68</v>
@@ -5746,7 +5743,7 @@
         <v>45890.7190162037</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E44">
         <v>26100.494600000002</v>
@@ -5791,7 +5788,7 @@
         <v>65</v>
       </c>
       <c r="T44" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AM44" t="s">
         <v>68</v>
@@ -14436,7 +14433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF5E143-8483-4FCB-BED3-178AEE5EE779}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -14527,7 +14524,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="7">
         <v>45901.711516203701</v>
@@ -14542,7 +14539,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" s="7">
         <v>45901.708333333336</v>
